--- a/Descargas/R15_Juzgado De Letras Y Garantia De Alto Hospicio_Familia_Ingresos Causas Por Materia_2018-Octubre.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Alto Hospicio_Familia_Ingresos Causas Por Materia_2018-Octubre.xlsx
@@ -200,7 +200,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <cols>
-    <col min="1" max="1" width="54" customWidth="1"/>
+    <col min="1" max="1" width="52.650000000000006" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -227,21 +227,21 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">Adopcion</t>
+          <t xml:space="preserve">Alimentos</t>
         </is>
       </c>
       <c r="B3" s="65">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Alimentos</t>
+          <t xml:space="preserve">Alimentos Aumento</t>
         </is>
       </c>
       <c r="B4" s="65">
-        <v>104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -251,7 +251,7 @@
         </is>
       </c>
       <c r="B5" s="65">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -261,7 +261,7 @@
         </is>
       </c>
       <c r="B6" s="65">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -291,37 +291,37 @@
         </is>
       </c>
       <c r="B9" s="65">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">Autorización Para Enajenar Bienes Raíces</t>
+          <t xml:space="preserve">Compensacion Economica</t>
         </is>
       </c>
       <c r="B10" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">Compensacion Economica</t>
+          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
         </is>
       </c>
       <c r="B11" s="65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
+          <t xml:space="preserve">Cuidado Del Niño, Otros</t>
         </is>
       </c>
       <c r="B12" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -331,7 +331,7 @@
         </is>
       </c>
       <c r="B13" s="65">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14">
@@ -341,7 +341,7 @@
         </is>
       </c>
       <c r="B14" s="65">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -351,7 +351,7 @@
         </is>
       </c>
       <c r="B15" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -361,7 +361,7 @@
         </is>
       </c>
       <c r="B16" s="65">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -371,13 +371,13 @@
         </is>
       </c>
       <c r="B17" s="65">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">Divorcio Por Culpa</t>
+          <t xml:space="preserve">Guardador Menores De Edad, Nombramiento</t>
         </is>
       </c>
       <c r="B18" s="65">
@@ -387,7 +387,7 @@
     <row r="19">
       <c t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">Entrega Menor Y/O Especies Del Menor/Costo De Crianza Y Educacion Tasados Por El Juez (Art. 239 Cc)</t>
+          <t xml:space="preserve">Infracción A La Ley Penal</t>
         </is>
       </c>
       <c r="B19" s="65">
@@ -397,67 +397,67 @@
     <row r="20">
       <c t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">Infracción A La Ley Penal</t>
+          <t xml:space="preserve">Otros Procedimientos Menores</t>
         </is>
       </c>
       <c r="B20" s="65">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21">
       <c t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">Otros Procedimientos Menores</t>
+          <t xml:space="preserve">Paternidad, Reconocimiento De</t>
         </is>
       </c>
       <c r="B21" s="65">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">Paternidad, Impugnacion Y Reconocimiento De</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Con El Niño</t>
         </is>
       </c>
       <c r="B22" s="65">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">Paternidad, Reconocimiento De</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Modificacion</t>
         </is>
       </c>
       <c r="B23" s="65">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Con El Niño</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Suspension</t>
         </is>
       </c>
       <c r="B24" s="65">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Modificacion</t>
+          <t xml:space="preserve">Relacion Directa Y Regular, Otros</t>
         </is>
       </c>
       <c r="B25" s="65">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Suspension</t>
+          <t xml:space="preserve">Relación Directa Y Regular Suspensión</t>
         </is>
       </c>
       <c r="B26" s="65">
@@ -467,41 +467,21 @@
     <row r="27">
       <c t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular, Otros</t>
+          <t xml:space="preserve">Violencia Intrafamiliar</t>
         </is>
       </c>
       <c r="B27" s="65">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
       <c t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">Relación Directa Y Regular Suspensión</t>
+          <t xml:space="preserve">Vulneración De Derechos</t>
         </is>
       </c>
       <c r="B28" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c t="inlineStr" r="A29">
-        <is>
-          <t xml:space="preserve">Violencia Intrafamiliar</t>
-        </is>
-      </c>
-      <c r="B29" s="65">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30">
-      <c t="inlineStr" r="A30">
-        <is>
-          <t xml:space="preserve">Vulneración De Derechos</t>
-        </is>
-      </c>
-      <c r="B30" s="65">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
